--- a/results.xlsx
+++ b/results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vp/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vp/Desktop/MDSE/2S/LCED/Continente_Project_LCED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB05A1FF-A68D-7C42-8FEE-73663EEC720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083836DC-845F-2948-BA6D-A7949E88C506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{A0F4FF5D-E7D8-D040-98A4-0D27F063C3AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,29 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>-0.00</t>
-  </si>
-  <si>
     <t>R² Mean</t>
   </si>
   <si>
@@ -191,12 +174,6 @@
     <t>CONVERSION FACTOR</t>
   </si>
   <si>
-    <t>≈ 66.8 M</t>
-  </si>
-  <si>
-    <t>≈ 66.6 M</t>
-  </si>
-  <si>
     <t>precision</t>
   </si>
   <si>
@@ -257,338 +234,213 @@
     <t>020204 - doçaria impulso</t>
   </si>
   <si>
-    <t>2.06</t>
-  </si>
-  <si>
-    <t>1.73</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
     <t>020305 - bolos</t>
   </si>
   <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
     <t>0.25</t>
   </si>
   <si>
-    <t>0.33</t>
-  </si>
-  <si>
     <t>020203 - drops, gomas e rebuç</t>
   </si>
   <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
     <t>080405 - infantis</t>
   </si>
   <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
     <t>100101 - óleos</t>
   </si>
   <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>-0.25</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>020301 - bol. tradicionais</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
     <t>010207 - sal</t>
   </si>
   <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>-0.47</t>
-  </si>
-  <si>
     <t>050402 - toalhitas bebé&amp;crian</t>
   </si>
   <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
     <t>060307 - acessórios limpeza</t>
   </si>
   <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>-0.45</t>
-  </si>
-  <si>
     <t>0.24</t>
   </si>
   <si>
     <t>010302 - conservas carne</t>
   </si>
   <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
     <t>0.23</t>
   </si>
   <si>
     <t>080401 - sólidos tradicionais</t>
   </si>
   <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
     <t>100202 - a�úcar</t>
   </si>
   <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
     <t>030204 - Ref sem gás</t>
   </si>
   <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
     <t>020303 - bolachas salgadas</t>
   </si>
   <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
     <t>030202 - ice tea</t>
   </si>
   <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
     <t>140204 - Sobremesas/Fruta</t>
   </si>
   <si>
-    <t>0.64</t>
-  </si>
-  <si>
     <t>010203 - caldos</t>
   </si>
   <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>-0.33</t>
-  </si>
-  <si>
     <t>060301 - limpeza do chão</t>
   </si>
   <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>-0.52</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
     <t>020205 - sazonais</t>
   </si>
   <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>050202 - prod. hig. feminina</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
     <t>XGBoost</t>
   </si>
   <si>
-    <t>0.038013</t>
-  </si>
-  <si>
-    <t>0.029028</t>
-  </si>
-  <si>
-    <t>0.029267</t>
-  </si>
-  <si>
-    <t>3.304376</t>
-  </si>
-  <si>
-    <t>3.304783</t>
-  </si>
-  <si>
-    <t>3.289457</t>
-  </si>
-  <si>
-    <t>2.135448</t>
-  </si>
-  <si>
-    <t>2.195392</t>
-  </si>
-  <si>
-    <t>2.194108</t>
-  </si>
-  <si>
-    <t>3.342827</t>
-  </si>
-  <si>
-    <t>2.230132</t>
-  </si>
-  <si>
-    <t>0.006544</t>
-  </si>
-  <si>
-    <t>18.81</t>
-  </si>
-  <si>
-    <t>18.78</t>
-  </si>
-  <si>
-    <t>41.16</t>
-  </si>
-  <si>
-    <t>34.72</t>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>adjr2</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Mae</t>
+  </si>
+  <si>
+    <t>Mape</t>
+  </si>
+  <si>
+    <t>6.37</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>6.38</t>
+  </si>
+  <si>
+    <t>6.26</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>≈ 66,6 M</t>
+  </si>
+  <si>
+    <t>≈ 66,8 M</t>
+  </si>
+  <si>
+    <t>020301 - bol, tradicionais</t>
+  </si>
+  <si>
+    <t>050202 - prod, hig, feminina</t>
+  </si>
+  <si>
+    <t>R²</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>-8609113990691097862471680.00</t>
+  </si>
+  <si>
+    <t>-8648096394689350102679552.00</t>
+  </si>
+  <si>
+    <t>63184289896961139313475584.00</t>
+  </si>
+  <si>
+    <t>1777417929147.93</t>
+  </si>
+  <si>
+    <t>1040655488493.06</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>6.24</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>6.19</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>ElasticNet</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>Boosting</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Elastic Net Regression</t>
+  </si>
+  <si>
+    <t>MSE Mean</t>
+  </si>
+  <si>
+    <t>MAPE Mean</t>
+  </si>
+  <si>
+    <t>XGBoost Regression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -628,6 +480,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -637,7 +502,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -689,15 +554,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFF3E0E1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color rgb="FFFF0000"/>
       </top>
       <bottom/>
@@ -707,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,10 +596,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -767,6 +620,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,6 +643,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF3E0E1"/>
       <color rgb="FFFCF2F2"/>
       <color rgb="FF000000"/>
       <color rgb="FFFF0000"/>
@@ -783,7 +652,6 @@
       <color rgb="FFD80204"/>
       <color rgb="FFFF0024"/>
       <color rgb="FFFF380D"/>
-      <color rgb="FFF3E0E1"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2021,15 +1889,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1930400</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>378460</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>8466</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2355,19 +2223,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77034B3-97EE-A743-823B-4CDECE61417A}">
-  <dimension ref="E1:AM56"/>
+  <dimension ref="B1:AM80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:I44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -2376,6 +2243,7 @@
     <col min="19" max="19" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
@@ -2394,177 +2262,177 @@
         <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="7:39" x14ac:dyDescent="0.2">
       <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.36</v>
       </c>
     </row>
     <row r="3" spans="7:39" x14ac:dyDescent="0.2">
       <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="7:39" x14ac:dyDescent="0.2">
       <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="7:39" x14ac:dyDescent="0.2">
       <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.35</v>
       </c>
     </row>
     <row r="6" spans="7:39" x14ac:dyDescent="0.2">
       <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>3</v>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.36</v>
       </c>
     </row>
     <row r="7" spans="7:39" x14ac:dyDescent="0.2">
       <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.36</v>
       </c>
     </row>
     <row r="10" spans="7:39" x14ac:dyDescent="0.2">
       <c r="AA10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AB10" s="9" t="s">
+      <c r="AJ10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AC10" s="9" t="s">
+      <c r="AK10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AD10" s="9" t="s">
+      <c r="AL10" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="AE10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL10" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="AM10" s="1"/>
     </row>
@@ -2572,16 +2440,16 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA11" s="10">
         <v>13031606</v>
@@ -2593,7 +2461,7 @@
         <v>20204</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AE11" s="10">
         <v>182</v>
@@ -2604,20 +2472,20 @@
       <c r="AG11" s="10">
         <v>2947</v>
       </c>
-      <c r="AH11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL11" s="10" t="s">
-        <v>77</v>
+      <c r="AH11" s="10">
+        <v>2.06</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>1.73</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>1.34</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>0.38</v>
       </c>
       <c r="AM11" s="1"/>
     </row>
@@ -2626,28 +2494,28 @@
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2">
         <v>10</v>
@@ -2671,7 +2539,7 @@
         <v>20305</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AE12" s="11">
         <v>107</v>
@@ -2682,26 +2550,26 @@
       <c r="AG12" s="11">
         <v>2106</v>
       </c>
-      <c r="AH12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ12" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL12" s="11" t="s">
-        <v>83</v>
+      <c r="AH12" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="AI12" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="AJ12" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="AK12" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="AL12" s="11">
+        <v>0.33</v>
       </c>
       <c r="AM12" s="1"/>
     </row>
     <row r="13" spans="7:39" x14ac:dyDescent="0.2">
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1">
         <v>0.4773</v>
@@ -2721,9 +2589,9 @@
       <c r="N13" s="2">
         <v>12</v>
       </c>
-      <c r="P13" s="14"/>
+      <c r="P13" s="13"/>
       <c r="Q13" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R13" s="3">
         <v>5</v>
@@ -2747,7 +2615,7 @@
         <v>20203</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="AE13" s="11">
         <v>68</v>
@@ -2758,26 +2626,26 @@
       <c r="AG13" s="11">
         <v>1710</v>
       </c>
-      <c r="AH13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL13" s="11" t="s">
-        <v>83</v>
+      <c r="AH13" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>-0.01</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>0.33</v>
       </c>
       <c r="AM13" s="1"/>
     </row>
     <row r="14" spans="7:39" x14ac:dyDescent="0.2">
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3">
         <v>0.42920000000000003</v>
@@ -2797,9 +2665,9 @@
       <c r="N14" s="3">
         <v>10</v>
       </c>
-      <c r="P14" s="14"/>
+      <c r="P14" s="13"/>
       <c r="Q14" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="R14" s="3">
         <v>18</v>
@@ -2823,7 +2691,7 @@
         <v>80405</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="AE14" s="11">
         <v>39</v>
@@ -2834,26 +2702,26 @@
       <c r="AG14" s="11">
         <v>1042</v>
       </c>
-      <c r="AH14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ14" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL14" s="11" t="s">
-        <v>94</v>
+      <c r="AH14" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="AI14" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="AJ14" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="AK14" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="AL14" s="11">
+        <v>0.32</v>
       </c>
       <c r="AM14" s="1"/>
     </row>
     <row r="15" spans="7:39" x14ac:dyDescent="0.2">
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H15" s="3">
         <v>0.48309999999999997</v>
@@ -2873,15 +2741,15 @@
       <c r="N15" s="3">
         <v>524</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="13"/>
       <c r="Q15" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R15" s="3">
         <v>14</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="T15" s="3">
         <v>10708</v>
@@ -2899,7 +2767,7 @@
         <v>100101</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="AE15" s="11">
         <v>49</v>
@@ -2910,26 +2778,26 @@
       <c r="AG15" s="11">
         <v>1764</v>
       </c>
-      <c r="AH15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ15" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK15" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>99</v>
+      <c r="AH15" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>-0.25</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>0.27</v>
       </c>
       <c r="AM15" s="1"/>
     </row>
     <row r="16" spans="7:39" x14ac:dyDescent="0.2">
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3">
         <v>0.48570000000000002</v>
@@ -2949,16 +2817,16 @@
       <c r="N16" s="3">
         <v>220</v>
       </c>
-      <c r="P16" s="14"/>
+      <c r="P16" s="13"/>
       <c r="Q16" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R16" s="6">
         <f>SUM(R12:R15)</f>
         <v>47</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="T16" s="6">
         <f>SUM(T12:T15)</f>
@@ -2977,7 +2845,7 @@
         <v>20301</v>
       </c>
       <c r="AD16" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AE16" s="11">
         <v>107</v>
@@ -2988,45 +2856,45 @@
       <c r="AG16" s="11">
         <v>2247</v>
       </c>
-      <c r="AH16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI16" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL16" s="11" t="s">
-        <v>99</v>
+      <c r="AH16" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="AI16" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="AJ16" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="AK16" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="AL16" s="11">
+        <v>0.27</v>
       </c>
       <c r="AM16" s="1"/>
     </row>
     <row r="17" spans="5:39" x14ac:dyDescent="0.2">
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H17" s="8">
-        <f>R44</f>
+        <f>AG80</f>
         <v>0.48071176470588239</v>
       </c>
       <c r="I17" s="8">
-        <f>Q44</f>
+        <f>AF80</f>
         <v>0.81215882352941182</v>
       </c>
       <c r="J17" s="8">
-        <f>O44</f>
+        <f>AD80</f>
         <v>0.33969411764705876</v>
       </c>
       <c r="K17" s="8">
-        <f>P44</f>
+        <f>AE80</f>
         <v>0.75122352941176462</v>
       </c>
       <c r="L17" s="8">
-        <f>S44</f>
+        <f>AH80</f>
         <v>0.7765882352941178</v>
       </c>
       <c r="N17" s="3">
@@ -3042,7 +2910,7 @@
         <v>10207</v>
       </c>
       <c r="AD17" s="11" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="AE17" s="11">
         <v>22</v>
@@ -3053,20 +2921,20 @@
       <c r="AG17" s="11">
         <v>1581</v>
       </c>
-      <c r="AH17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>99</v>
+      <c r="AH17" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>-0.47</v>
+      </c>
+      <c r="AL17" s="11">
+        <v>0.27</v>
       </c>
       <c r="AM17" s="1"/>
     </row>
@@ -3081,7 +2949,7 @@
         <v>50402</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="AE18" s="11">
         <v>114</v>
@@ -3092,34 +2960,34 @@
       <c r="AG18" s="11">
         <v>2246</v>
       </c>
-      <c r="AH18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI18" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ18" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK18" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL18" s="11" t="s">
-        <v>82</v>
+      <c r="AH18" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="AI18" s="11">
+        <v>1.28</v>
+      </c>
+      <c r="AJ18" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="AK18" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="AL18" s="11">
+        <v>0.25</v>
       </c>
       <c r="AM18" s="1"/>
     </row>
     <row r="19" spans="5:39" x14ac:dyDescent="0.2">
-      <c r="F19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="F19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
       <c r="AA19" s="11">
         <v>13031606</v>
       </c>
@@ -3130,7 +2998,7 @@
         <v>60307</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AE19" s="11">
         <v>37</v>
@@ -3141,32 +3009,32 @@
       <c r="AG19" s="11">
         <v>1914</v>
       </c>
-      <c r="AH19" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK19" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL19" s="11" t="s">
-        <v>114</v>
+      <c r="AH19" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>-0.45</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>0.24</v>
       </c>
       <c r="AM19" s="1"/>
     </row>
     <row r="20" spans="5:39" x14ac:dyDescent="0.2">
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
       <c r="AA20" s="11">
         <v>13031606</v>
       </c>
@@ -3177,7 +3045,7 @@
         <v>10302</v>
       </c>
       <c r="AD20" s="11" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AE20" s="11">
         <v>129</v>
@@ -3188,48 +3056,48 @@
       <c r="AG20" s="11">
         <v>2496</v>
       </c>
-      <c r="AH20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI20" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK20" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL20" s="11" t="s">
-        <v>119</v>
+      <c r="AH20" s="11">
+        <v>1.46</v>
+      </c>
+      <c r="AI20" s="11">
+        <v>1.37</v>
+      </c>
+      <c r="AJ20" s="11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AK20" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>0.23</v>
       </c>
       <c r="AM20" s="1"/>
     </row>
     <row r="21" spans="5:39" x14ac:dyDescent="0.2">
       <c r="E21" s="1"/>
-      <c r="F21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>50</v>
+      <c r="F21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="AA21" s="11">
         <v>13031606</v>
@@ -3241,7 +3109,7 @@
         <v>80401</v>
       </c>
       <c r="AD21" s="11" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="AE21" s="11">
         <v>47</v>
@@ -3252,33 +3120,33 @@
       <c r="AG21" s="11">
         <v>1324</v>
       </c>
-      <c r="AH21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ21" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK21" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL21" s="11" t="s">
-        <v>125</v>
+      <c r="AH21" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>0.22</v>
       </c>
       <c r="AM21" s="1"/>
     </row>
     <row r="22" spans="5:39" x14ac:dyDescent="0.2">
       <c r="E22" s="5"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
       <c r="AA22" s="11">
         <v>13031606</v>
       </c>
@@ -3289,7 +3157,7 @@
         <v>100202</v>
       </c>
       <c r="AD22" s="11" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AE22" s="11">
         <v>92</v>
@@ -3300,26 +3168,26 @@
       <c r="AG22" s="11">
         <v>2079</v>
       </c>
-      <c r="AH22" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI22" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ22" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK22" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL22" s="11" t="s">
-        <v>125</v>
+      <c r="AH22" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="AI22" s="11">
+        <v>1.17</v>
+      </c>
+      <c r="AJ22" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="AK22" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="AL22" s="11">
+        <v>0.22</v>
       </c>
       <c r="AM22" s="1"/>
     </row>
     <row r="23" spans="5:39" x14ac:dyDescent="0.2">
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2">
         <v>55463664</v>
@@ -3355,7 +3223,7 @@
         <v>30204</v>
       </c>
       <c r="AD23" s="11" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AE23" s="11">
         <v>13</v>
@@ -3366,26 +3234,26 @@
       <c r="AG23" s="11">
         <v>605</v>
       </c>
-      <c r="AH23" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI23" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ23" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK23" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL23" s="11" t="s">
-        <v>136</v>
+      <c r="AH23" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="AI23" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="AJ23" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AK23" s="11">
+        <v>-0.13</v>
+      </c>
+      <c r="AL23" s="11">
+        <v>0.21</v>
       </c>
       <c r="AM23" s="1"/>
     </row>
     <row r="24" spans="5:39" x14ac:dyDescent="0.2">
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F24" s="3">
         <v>3.17</v>
@@ -3421,7 +3289,7 @@
         <v>20303</v>
       </c>
       <c r="AD24" s="11" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE24" s="11">
         <v>51</v>
@@ -3432,26 +3300,26 @@
       <c r="AG24" s="11">
         <v>1344</v>
       </c>
-      <c r="AH24" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI24" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ24" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK24" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL24" s="11" t="s">
-        <v>142</v>
+      <c r="AH24" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AI24" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="AJ24" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="AK24" s="11">
+        <v>-0.04</v>
+      </c>
+      <c r="AL24" s="11">
+        <v>0.2</v>
       </c>
       <c r="AM24" s="1"/>
     </row>
     <row r="25" spans="5:39" x14ac:dyDescent="0.2">
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F25" s="3">
         <v>4.79</v>
@@ -3487,7 +3355,7 @@
         <v>30202</v>
       </c>
       <c r="AD25" s="11" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AE25" s="11">
         <v>118</v>
@@ -3498,26 +3366,26 @@
       <c r="AG25" s="11">
         <v>2190</v>
       </c>
-      <c r="AH25" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI25" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ25" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK25" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL25" s="11" t="s">
-        <v>142</v>
+      <c r="AH25" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>0.2</v>
       </c>
       <c r="AM25" s="1"/>
     </row>
     <row r="26" spans="5:39" x14ac:dyDescent="0.2">
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -3543,21 +3411,6 @@
       <c r="M26" s="3">
         <v>-1</v>
       </c>
-      <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>55</v>
-      </c>
-      <c r="R26" t="s">
-        <v>56</v>
-      </c>
-      <c r="S26" t="s">
-        <v>57</v>
-      </c>
       <c r="AA26" s="11">
         <v>13031606</v>
       </c>
@@ -3568,7 +3421,7 @@
         <v>140204</v>
       </c>
       <c r="AD26" s="11" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="AE26" s="11">
         <v>88</v>
@@ -3579,20 +3432,20 @@
       <c r="AG26" s="11">
         <v>1413</v>
       </c>
-      <c r="AH26" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI26" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ26" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL26" s="11" t="s">
-        <v>103</v>
+      <c r="AH26" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="AJ26" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="AK26" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="AL26" s="11">
+        <v>0.19</v>
       </c>
       <c r="AM26" s="1"/>
     </row>
@@ -3624,21 +3477,6 @@
       <c r="M27" s="3">
         <v>0.25</v>
       </c>
-      <c r="O27" s="1">
-        <v>0.34239999999999998</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.7157</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0.84670000000000001</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0.44769999999999999</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0.76880000000000004</v>
-      </c>
       <c r="AA27" s="11">
         <v>13031606</v>
       </c>
@@ -3649,7 +3487,7 @@
         <v>10203</v>
       </c>
       <c r="AD27" s="11" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="AE27" s="11">
         <v>14</v>
@@ -3660,20 +3498,20 @@
       <c r="AG27" s="11">
         <v>1063</v>
       </c>
-      <c r="AH27" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI27" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ27" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK27" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL27" s="11" t="s">
-        <v>103</v>
+      <c r="AH27" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="AI27" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="AJ27" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="AK27" s="11">
+        <v>-0.33</v>
+      </c>
+      <c r="AL27" s="11">
+        <v>0.19</v>
       </c>
       <c r="AM27" s="1"/>
     </row>
@@ -3705,21 +3543,6 @@
       <c r="M28" s="3">
         <v>0.69</v>
       </c>
-      <c r="O28" s="1">
-        <v>0.3473</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0.8296</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0.48970000000000002</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0.7712</v>
-      </c>
       <c r="AA28" s="11">
         <v>13031606</v>
       </c>
@@ -3730,7 +3553,7 @@
         <v>60301</v>
       </c>
       <c r="AD28" s="11" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="AE28" s="11">
         <v>46</v>
@@ -3741,20 +3564,20 @@
       <c r="AG28" s="11">
         <v>2271</v>
       </c>
-      <c r="AH28" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI28" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ28" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK28" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL28" s="11" t="s">
-        <v>156</v>
+      <c r="AH28" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="AI28" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="AJ28" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="AK28" s="11">
+        <v>-0.52</v>
+      </c>
+      <c r="AL28" s="11">
+        <v>0.18</v>
       </c>
       <c r="AM28" s="1"/>
     </row>
@@ -3786,21 +3609,6 @@
       <c r="M29" s="3">
         <v>1</v>
       </c>
-      <c r="O29" s="1">
-        <v>0.3513</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.72509999999999997</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0.4955</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0.7722</v>
-      </c>
       <c r="AA29" s="11">
         <v>13031606</v>
       </c>
@@ -3811,7 +3619,7 @@
         <v>20205</v>
       </c>
       <c r="AD29" s="11" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AE29" s="11">
         <v>13</v>
@@ -3822,26 +3630,26 @@
       <c r="AG29" s="11">
         <v>793</v>
       </c>
-      <c r="AH29" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI29" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL29" s="11" t="s">
-        <v>159</v>
+      <c r="AH29" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="AJ29" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="AK29" s="11">
+        <v>-0.21</v>
+      </c>
+      <c r="AL29" s="11">
+        <v>0.17</v>
       </c>
       <c r="AM29" s="1"/>
     </row>
     <row r="30" spans="5:39" x14ac:dyDescent="0.2">
       <c r="E30" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F30" s="3">
         <v>93</v>
@@ -3867,21 +3675,6 @@
       <c r="M30" s="3">
         <v>1800</v>
       </c>
-      <c r="O30" s="1">
-        <v>0.37109999999999999</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.75849999999999995</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0.81759999999999999</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0.51049999999999995</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0.78269999999999995</v>
-      </c>
       <c r="AA30" s="11">
         <v>13031606</v>
       </c>
@@ -3892,7 +3685,7 @@
         <v>50202</v>
       </c>
       <c r="AD30" s="11" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AE30" s="11">
         <v>83</v>
@@ -3903,222 +3696,77 @@
       <c r="AG30" s="11">
         <v>2484</v>
       </c>
-      <c r="AH30" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI30" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ30" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK30" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL30" s="11" t="s">
-        <v>159</v>
+      <c r="AH30" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AK30" s="11">
+        <v>-0.19</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>0.17</v>
       </c>
       <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="5:39" x14ac:dyDescent="0.2">
-      <c r="O31" s="1">
-        <v>0.38679999999999998</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0.76060000000000005</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0.82420000000000004</v>
-      </c>
-      <c r="R31" s="1">
-        <v>0.52649999999999997</v>
-      </c>
-      <c r="S31" s="1">
-        <v>0.7863</v>
-      </c>
-    </row>
-    <row r="32" spans="5:39" x14ac:dyDescent="0.2">
-      <c r="O32" s="1">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.74909999999999999</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0.83040000000000003</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0.5071</v>
-      </c>
-      <c r="S32" s="1">
-        <v>0.7823</v>
-      </c>
-    </row>
-    <row r="33" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="O33" s="1">
-        <v>0.37519999999999998</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0.73619999999999997</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0.82530000000000003</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0.51590000000000003</v>
-      </c>
-      <c r="S33" s="1">
-        <v>0.77159999999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="O34" s="1">
-        <v>0.3417</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0.73209999999999997</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0.86019999999999996</v>
-      </c>
-      <c r="R34" s="1">
-        <v>0.48909999999999998</v>
-      </c>
-      <c r="S34" s="1">
-        <v>0.78490000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="O35" s="1">
-        <v>0.39779999999999999</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0.81430000000000002</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0.66359999999999997</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0.49740000000000001</v>
-      </c>
-      <c r="S35" s="1">
-        <v>0.75109999999999999</v>
-      </c>
-    </row>
     <row r="36" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="O36" s="1">
-        <v>0.32719999999999999</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0.75290000000000001</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0.78790000000000004</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0.46239999999999998</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0.76770000000000005</v>
-      </c>
       <c r="AD36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE36" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG36" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AE36" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG36" s="9" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="37" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="O37" s="1">
-        <v>0.30919999999999997</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0.72760000000000002</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0.83589999999999998</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0.45140000000000002</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0.77339999999999998</v>
-      </c>
       <c r="AD37" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE37" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF37" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG37" s="10" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>1.73</v>
+      </c>
+      <c r="AF37" s="10">
+        <v>1.34</v>
+      </c>
+      <c r="AG37" s="10">
+        <v>0.38</v>
       </c>
     </row>
     <row r="38" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="O38" s="1">
-        <v>0.31940000000000002</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0.75419999999999998</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0.81179999999999997</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0.45839999999999997</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0.77880000000000005</v>
-      </c>
       <c r="AD38" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE38" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF38" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG38" s="11" t="s">
-        <v>83</v>
+        <v>65</v>
+      </c>
+      <c r="AE38" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="AF38" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="AG38" s="11">
+        <v>0.33</v>
       </c>
     </row>
     <row r="39" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="O39" s="1">
-        <v>0.2329</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0.7429</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0.82289999999999996</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0.46379999999999999</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0.78090000000000004</v>
-      </c>
       <c r="AD39" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE39" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF39" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG39" s="11" t="s">
-        <v>83</v>
+        <v>67</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>0.33</v>
       </c>
     </row>
     <row r="40" spans="6:33" x14ac:dyDescent="0.2">
@@ -4126,405 +3774,1121 @@
         <v>0</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0.33210000000000001</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>0.78920000000000001</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0.46750000000000003</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0.78390000000000004</v>
+        <v>4</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="AD40" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE40" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF40" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG40" s="11" t="s">
-        <v>94</v>
+        <v>68</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>0.32</v>
       </c>
     </row>
     <row r="41" spans="6:33" x14ac:dyDescent="0.2">
       <c r="F41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0.32369999999999999</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0.76129999999999998</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0.81430000000000002</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0.46329999999999999</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0.78400000000000003</v>
+        <v>9</v>
+      </c>
+      <c r="G41" s="23">
+        <v>0.25157894736842112</v>
+      </c>
+      <c r="H41" s="24">
+        <v>6.2736842105263175</v>
+      </c>
+      <c r="I41" s="24">
+        <v>2.5015789473684213</v>
+      </c>
+      <c r="J41" s="24">
+        <v>1.7589473684210528</v>
+      </c>
+      <c r="K41" s="24">
+        <v>0.47315789473684211</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1.2</v>
       </c>
       <c r="AD41" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE41" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF41" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG41" s="11" t="s">
-        <v>99</v>
+        <v>69</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>0.27</v>
       </c>
     </row>
     <row r="42" spans="6:33" x14ac:dyDescent="0.2">
       <c r="F42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O42" s="1">
-        <v>0.30819999999999997</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0.76149999999999995</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>0.82379999999999998</v>
-      </c>
-      <c r="R42" s="1">
-        <v>0.4486</v>
-      </c>
-      <c r="S42" s="1">
-        <v>0.78849999999999998</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H42" s="2">
+        <v>6.24</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="O42" s="3">
+        <v>1.8</v>
       </c>
       <c r="AD42" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE42" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF42" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG42" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="AE42" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="AF42" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="AG42" s="11">
+        <v>0.27</v>
       </c>
     </row>
     <row r="43" spans="6:33" x14ac:dyDescent="0.2">
       <c r="F43" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0.34350000000000003</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0.76780000000000004</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>0.78180000000000005</v>
-      </c>
-      <c r="R43" s="1">
-        <v>0.4773</v>
-      </c>
-      <c r="S43" s="1">
-        <v>0.77370000000000005</v>
+        <v>11</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6.19</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2.48</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1.54</v>
       </c>
       <c r="AD43" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE43" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF43" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG43" s="11" t="s">
-        <v>99</v>
+        <v>70</v>
+      </c>
+      <c r="AE43" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="AG43" s="11">
+        <v>0.27</v>
       </c>
     </row>
     <row r="44" spans="6:33" x14ac:dyDescent="0.2">
       <c r="F44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="O44" s="7">
-        <f>AVERAGE(O27:O43)</f>
-        <v>0.33969411764705876</v>
-      </c>
-      <c r="P44" s="7">
-        <f t="shared" ref="P44:S44" si="0">AVERAGE(P27:P43)</f>
-        <v>0.75122352941176462</v>
-      </c>
-      <c r="Q44" s="7">
-        <f t="shared" si="0"/>
-        <v>0.81215882352941182</v>
-      </c>
-      <c r="R44" s="7">
-        <f t="shared" si="0"/>
-        <v>0.48071176470588239</v>
-      </c>
-      <c r="S44" s="7">
-        <f t="shared" si="0"/>
-        <v>0.7765882352941178</v>
+        <v>127</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6.18</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2.48</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1.51</v>
       </c>
       <c r="AD44" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE44" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF44" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG44" s="11" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="AE44" s="11">
+        <v>1.28</v>
+      </c>
+      <c r="AF44" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="AG44" s="11">
+        <v>0.25</v>
       </c>
     </row>
     <row r="45" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="H45" s="3">
+        <v>6.37</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="O45" s="25">
+        <v>18.350000000000001</v>
+      </c>
       <c r="AD45" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE45" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF45" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG45" s="11" t="s">
-        <v>114</v>
+        <v>72</v>
+      </c>
+      <c r="AE45" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AF45" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>0.24</v>
       </c>
     </row>
     <row r="46" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="H46" s="3">
+        <v>6.38</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="O46" s="25">
+        <v>12.18</v>
+      </c>
       <c r="AD46" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE46" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF46" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG46" s="11" t="s">
-        <v>119</v>
+        <v>74</v>
+      </c>
+      <c r="AE46" s="11">
+        <v>1.37</v>
+      </c>
+      <c r="AF46" s="11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AG46" s="11">
+        <v>0.23</v>
       </c>
     </row>
     <row r="47" spans="6:33" x14ac:dyDescent="0.2">
+      <c r="F47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6.26</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="O47" s="25">
+        <v>67.239999999999995</v>
+      </c>
       <c r="AD47" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE47" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF47" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG47" s="11" t="s">
-        <v>125</v>
+        <v>76</v>
+      </c>
+      <c r="AE47" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="AG47" s="11">
+        <v>0.22</v>
       </c>
     </row>
     <row r="48" spans="6:33" x14ac:dyDescent="0.2">
       <c r="AD48" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE48" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF48" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG48" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="30:33" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="AE48" s="11">
+        <v>1.17</v>
+      </c>
+      <c r="AF48" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="AG48" s="11">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="49" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD49" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE49" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF49" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG49" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="30:33" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="AE49" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="AF49" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AG49" s="11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="50" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD50" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF50" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG50" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="30:33" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="AE50" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="AF50" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="AG50" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD51" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE51" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF51" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG51" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="30:33" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="AE51" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="AF51" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD52" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE52" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF52" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG52" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="30:33" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="AE52" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="AF52" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="AG52" s="11">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="53" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD53" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE53" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF53" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG53" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="30:33" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="AG53" s="11">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="54" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD54" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE54" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF54" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG54" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="30:33" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="AE54" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="AF54" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="AG54" s="11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="55" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD55" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE55" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF55" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG55" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="30:33" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="AE55" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="AF55" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="AG55" s="11">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="56" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD56" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE56" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF56" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG56" s="11" t="s">
-        <v>159</v>
+        <v>105</v>
+      </c>
+      <c r="AE56" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="AF56" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AG56" s="11">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="62" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD63" s="1">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0.7157</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0.76880000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD64" s="1">
+        <v>0.3473</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>0.8296</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0.7712</v>
+      </c>
+    </row>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AD65" s="1">
+        <v>0.3513</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>0.72509999999999997</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>0.4955</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>0.7722</v>
+      </c>
+    </row>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AD66" s="1">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>0.81759999999999999</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>0.78269999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AD67" s="1">
+        <v>0.38679999999999998</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>0.76060000000000005</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0.7863</v>
+      </c>
+    </row>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AD68" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>0.5071</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>0.7823</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AD69" s="1">
+        <v>0.37519999999999998</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>0.77159999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AB70" s="20">
+        <f>SUM(C71:U71)</f>
+        <v>4.7800000000000011</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>0.3417</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>0.78490000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71">
+        <v>0.24</v>
+      </c>
+      <c r="D71">
+        <v>0.25</v>
+      </c>
+      <c r="E71">
+        <v>0.24</v>
+      </c>
+      <c r="F71">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G71">
+        <v>0.23</v>
+      </c>
+      <c r="H71">
+        <v>0.35</v>
+      </c>
+      <c r="I71">
+        <v>0.38</v>
+      </c>
+      <c r="J71">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K71">
+        <v>0.23</v>
+      </c>
+      <c r="L71">
+        <v>0.17</v>
+      </c>
+      <c r="M71">
+        <v>0.23</v>
+      </c>
+      <c r="N71">
+        <v>0.27</v>
+      </c>
+      <c r="O71">
+        <v>0.21</v>
+      </c>
+      <c r="P71">
+        <v>0.23</v>
+      </c>
+      <c r="Q71">
+        <v>0.23</v>
+      </c>
+      <c r="R71">
+        <v>0.2</v>
+      </c>
+      <c r="S71">
+        <v>0.24</v>
+      </c>
+      <c r="T71">
+        <v>0.27</v>
+      </c>
+      <c r="U71">
+        <v>0.23</v>
+      </c>
+      <c r="V71" s="21">
+        <f>AVERAGE(C71:U71)</f>
+        <v>0.25157894736842112</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>0.75109999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72">
+        <v>0.24</v>
+      </c>
+      <c r="D72">
+        <v>0.25</v>
+      </c>
+      <c r="E72">
+        <v>0.24</v>
+      </c>
+      <c r="F72">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G72">
+        <v>0.22</v>
+      </c>
+      <c r="H72">
+        <v>0.35</v>
+      </c>
+      <c r="I72">
+        <v>0.37</v>
+      </c>
+      <c r="J72">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K72">
+        <v>0.22</v>
+      </c>
+      <c r="L72">
+        <v>0.16</v>
+      </c>
+      <c r="M72">
+        <v>0.23</v>
+      </c>
+      <c r="N72">
+        <v>0.27</v>
+      </c>
+      <c r="O72">
+        <v>0.2</v>
+      </c>
+      <c r="P72">
+        <v>0.23</v>
+      </c>
+      <c r="Q72">
+        <v>0.23</v>
+      </c>
+      <c r="R72">
+        <v>0.19</v>
+      </c>
+      <c r="S72">
+        <v>0.24</v>
+      </c>
+      <c r="T72">
+        <v>0.26</v>
+      </c>
+      <c r="U72">
+        <v>0.22</v>
+      </c>
+      <c r="V72" s="21">
+        <f t="shared" ref="V72:V76" si="0">AVERAGE(C72:U72)</f>
+        <v>0.2473684210526316</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>0.46239999999999998</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0.76770000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73">
+        <v>6.37</v>
+      </c>
+      <c r="D73">
+        <v>6.08</v>
+      </c>
+      <c r="E73">
+        <v>6.56</v>
+      </c>
+      <c r="F73">
+        <v>6.38</v>
+      </c>
+      <c r="G73">
+        <v>6.26</v>
+      </c>
+      <c r="H73">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="I73">
+        <v>5.23</v>
+      </c>
+      <c r="J73">
+        <v>8.23</v>
+      </c>
+      <c r="K73">
+        <v>6.92</v>
+      </c>
+      <c r="L73">
+        <v>5.96</v>
+      </c>
+      <c r="M73">
+        <v>5.61</v>
+      </c>
+      <c r="N73">
+        <v>6.18</v>
+      </c>
+      <c r="O73">
+        <v>6.53</v>
+      </c>
+      <c r="P73">
+        <v>5.83</v>
+      </c>
+      <c r="Q73">
+        <v>6.33</v>
+      </c>
+      <c r="R73">
+        <v>7.18</v>
+      </c>
+      <c r="S73">
+        <v>5.9</v>
+      </c>
+      <c r="T73">
+        <v>6.45</v>
+      </c>
+      <c r="U73">
+        <v>6.22</v>
+      </c>
+      <c r="V73" s="21">
+        <f t="shared" si="0"/>
+        <v>6.2736842105263175</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>0.45140000000000002</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>0.77339999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74">
+        <v>2.52</v>
+      </c>
+      <c r="D74">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E74">
+        <v>2.56</v>
+      </c>
+      <c r="F74">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G74">
+        <v>2.5</v>
+      </c>
+      <c r="H74">
+        <v>2.23</v>
+      </c>
+      <c r="I74">
+        <v>2.29</v>
+      </c>
+      <c r="J74">
+        <v>2.87</v>
+      </c>
+      <c r="K74">
+        <v>2.63</v>
+      </c>
+      <c r="L74">
+        <v>2.44</v>
+      </c>
+      <c r="M74">
+        <v>2.37</v>
+      </c>
+      <c r="N74">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="O74">
+        <v>2.56</v>
+      </c>
+      <c r="P74">
+        <v>2.41</v>
+      </c>
+      <c r="Q74">
+        <v>2.52</v>
+      </c>
+      <c r="R74">
+        <v>2.68</v>
+      </c>
+      <c r="S74">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="T74">
+        <v>2.54</v>
+      </c>
+      <c r="U74">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="V74" s="21">
+        <f t="shared" si="0"/>
+        <v>2.5015789473684213</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>0.75419999999999998</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>0.77880000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75">
+        <v>1.82</v>
+      </c>
+      <c r="D75">
+        <v>1.73</v>
+      </c>
+      <c r="E75">
+        <v>1.83</v>
+      </c>
+      <c r="F75">
+        <v>1.82</v>
+      </c>
+      <c r="G75">
+        <v>1.76</v>
+      </c>
+      <c r="H75">
+        <v>1.61</v>
+      </c>
+      <c r="I75">
+        <v>1.69</v>
+      </c>
+      <c r="J75">
+        <v>1.83</v>
+      </c>
+      <c r="K75">
+        <v>1.86</v>
+      </c>
+      <c r="L75">
+        <v>1.62</v>
+      </c>
+      <c r="M75">
+        <v>1.52</v>
+      </c>
+      <c r="N75">
+        <v>1.71</v>
+      </c>
+      <c r="O75">
+        <v>1.77</v>
+      </c>
+      <c r="P75">
+        <v>1.82</v>
+      </c>
+      <c r="Q75">
+        <v>1.83</v>
+      </c>
+      <c r="R75">
+        <v>1.87</v>
+      </c>
+      <c r="S75">
+        <v>1.75</v>
+      </c>
+      <c r="T75">
+        <v>1.79</v>
+      </c>
+      <c r="U75">
+        <v>1.79</v>
+      </c>
+      <c r="V75" s="21">
+        <f t="shared" si="0"/>
+        <v>1.7589473684210528</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0.2329</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>0.7429</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>0.82289999999999996</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>0.46379999999999999</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>0.78090000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76">
+        <v>0.47</v>
+      </c>
+      <c r="D76">
+        <v>0.48</v>
+      </c>
+      <c r="E76">
+        <v>0.53</v>
+      </c>
+      <c r="F76">
+        <v>0.48</v>
+      </c>
+      <c r="G76">
+        <v>0.46</v>
+      </c>
+      <c r="H76">
+        <v>0.45</v>
+      </c>
+      <c r="I76">
+        <v>0.51</v>
+      </c>
+      <c r="J76">
+        <v>0.43</v>
+      </c>
+      <c r="K76">
+        <v>0.46</v>
+      </c>
+      <c r="L76">
+        <v>0.52</v>
+      </c>
+      <c r="M76">
+        <v>0.35</v>
+      </c>
+      <c r="N76">
+        <v>0.43</v>
+      </c>
+      <c r="O76">
+        <v>0.44</v>
+      </c>
+      <c r="P76">
+        <v>0.47</v>
+      </c>
+      <c r="Q76">
+        <v>0.54</v>
+      </c>
+      <c r="R76">
+        <v>0.47</v>
+      </c>
+      <c r="S76">
+        <v>0.51</v>
+      </c>
+      <c r="T76">
+        <v>0.5</v>
+      </c>
+      <c r="U76">
+        <v>0.49</v>
+      </c>
+      <c r="V76" s="21">
+        <f t="shared" si="0"/>
+        <v>0.47315789473684211</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>0.78390000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AD77" s="1">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="AG77" s="1">
+        <v>0.46329999999999999</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AD78" s="1">
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="AF78" s="1">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="AG78" s="1">
+        <v>0.4486</v>
+      </c>
+      <c r="AH78" s="1">
+        <v>0.78849999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AD79" s="1">
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>0.78180000000000005</v>
+      </c>
+      <c r="AG79" s="1">
+        <v>0.4773</v>
+      </c>
+      <c r="AH79" s="1">
+        <v>0.77370000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AD80" s="7">
+        <f>AVERAGE(AD63:AD79)</f>
+        <v>0.33969411764705876</v>
+      </c>
+      <c r="AE80" s="7">
+        <f t="shared" ref="AE80:AH80" si="1">AVERAGE(AE63:AE79)</f>
+        <v>0.75122352941176462</v>
+      </c>
+      <c r="AF80" s="7">
+        <f t="shared" si="1"/>
+        <v>0.81215882352941182</v>
+      </c>
+      <c r="AG80" s="7">
+        <f t="shared" si="1"/>
+        <v>0.48071176470588239</v>
+      </c>
+      <c r="AH80" s="7">
+        <f t="shared" si="1"/>
+        <v>0.7765882352941178</v>
       </c>
     </row>
   </sheetData>
@@ -4544,4 +4908,224 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847173F2-6888-2A4D-AD0F-30B3B819ABB4}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" activeCellId="3" sqref="C8 E8 F8 G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>